--- a/data/loop/group9/0.1/DNN/schedule/8.xlsx
+++ b/data/loop/group9/0.1/DNN/schedule/8.xlsx
@@ -462,13 +462,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3941440582275391</v>
+        <v>0.3946950435638428</v>
       </c>
       <c r="G2" t="n">
         <v>0.07018265451072302</v>
       </c>
       <c r="H2" t="n">
-        <v>36.15057634801469</v>
+        <v>36.10011096267103</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
@@ -503,13 +503,13 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4081318378448486</v>
+        <v>0.4121530055999756</v>
       </c>
       <c r="G3" t="n">
         <v>0.06803421403769887</v>
       </c>
       <c r="H3" t="n">
-        <v>36.01406575380953</v>
+        <v>35.66269478726902</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
@@ -544,13 +544,13 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3932480812072754</v>
+        <v>0.397819995880127</v>
       </c>
       <c r="G4" t="n">
         <v>0.07086145964922309</v>
       </c>
       <c r="H4" t="n">
-        <v>35.88585465427411</v>
+        <v>35.47343932286595</v>
       </c>
       <c r="I4" t="n">
         <v>6</v>
@@ -585,13 +585,13 @@
         <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3913397789001465</v>
+        <v>0.3927419185638428</v>
       </c>
       <c r="G5" t="n">
         <v>0.07180938117278277</v>
       </c>
       <c r="H5" t="n">
-        <v>35.58482386617588</v>
+        <v>35.45778142275435</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3951339721679688</v>
+        <v>0.3982760906219482</v>
       </c>
       <c r="G6" t="n">
         <v>0.07125008834544345</v>
       </c>
       <c r="H6" t="n">
-        <v>35.51977634244621</v>
+        <v>35.23955026974239</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -667,13 +667,13 @@
         <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3887760639190674</v>
+        <v>0.3895859718322754</v>
       </c>
       <c r="G7" t="n">
         <v>0.0734218939799713</v>
       </c>
       <c r="H7" t="n">
-        <v>35.03280390672401</v>
+        <v>34.95997442322778</v>
       </c>
       <c r="I7" t="n">
         <v>13</v>
@@ -708,13 +708,13 @@
         <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3922538757324219</v>
+        <v>0.3941080570220947</v>
       </c>
       <c r="G8" t="n">
         <v>0.07413775947697991</v>
       </c>
       <c r="H8" t="n">
-        <v>34.38692168541805</v>
+        <v>34.22513969273229</v>
       </c>
       <c r="I8" t="n">
         <v>11</v>
@@ -749,13 +749,13 @@
         <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3929450511932373</v>
+        <v>0.394212007522583</v>
       </c>
       <c r="G9" t="n">
         <v>0.07443799437798816</v>
       </c>
       <c r="H9" t="n">
-        <v>34.18798566846775</v>
+        <v>34.07810904369811</v>
       </c>
       <c r="I9" t="n">
         <v>6</v>
@@ -786,13 +786,13 @@
       <c r="D10" t="s"/>
       <c r="E10" t="s"/>
       <c r="F10" t="n">
-        <v>0.389495849609375</v>
+        <v>0.3908920288085938</v>
       </c>
       <c r="G10" t="n">
         <v>0.07623274231833234</v>
       </c>
       <c r="H10" t="n">
-        <v>33.67872353214712</v>
+        <v>33.55843063849273</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
@@ -823,13 +823,13 @@
       <c r="D11" t="s"/>
       <c r="E11" t="s"/>
       <c r="F11" t="n">
-        <v>0.3949780464172363</v>
+        <v>0.3972208499908447</v>
       </c>
       <c r="G11" t="n">
         <v>0.07536855609319809</v>
       </c>
       <c r="H11" t="n">
-        <v>33.5920762480294</v>
+        <v>33.40240738080921</v>
       </c>
       <c r="I11" t="n">
         <v>11</v>
@@ -837,15 +837,9 @@
       <c r="J11" t="n">
         <v>9</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="s"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="n">
@@ -857,20 +851,16 @@
       <c r="C12" t="n">
         <v>166</v>
       </c>
-      <c r="D12" t="n">
-        <v>4</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2</v>
-      </c>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
       <c r="F12" t="n">
-        <v>0.3920869827270508</v>
+        <v>0.3961279392242432</v>
       </c>
       <c r="G12" t="n">
         <v>0.0770822549373715</v>
       </c>
       <c r="H12" t="n">
-        <v>33.08743987671937</v>
+        <v>32.74991027603749</v>
       </c>
       <c r="I12" t="n">
         <v>7</v>
@@ -878,15 +868,9 @@
       <c r="J12" t="n">
         <v>10</v>
       </c>
-      <c r="K12" t="n">
-        <v>4</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="s"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="n">
@@ -898,20 +882,16 @@
       <c r="C13" t="n">
         <v>118</v>
       </c>
-      <c r="D13" t="n">
-        <v>3</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
+      <c r="D13" t="s"/>
+      <c r="E13" t="s"/>
       <c r="F13" t="n">
-        <v>0.402008056640625</v>
+        <v>0.4050350189208984</v>
       </c>
       <c r="G13" t="n">
         <v>0.07634822307911057</v>
       </c>
       <c r="H13" t="n">
-        <v>32.58114250099763</v>
+        <v>32.33765271667853</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
@@ -919,15 +899,9 @@
       <c r="J13" t="n">
         <v>11</v>
       </c>
-      <c r="K13" t="n">
-        <v>3</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="s"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="n">
@@ -939,20 +913,16 @@
       <c r="C14" t="n">
         <v>99</v>
       </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2</v>
-      </c>
+      <c r="D14" t="s"/>
+      <c r="E14" t="s"/>
       <c r="F14" t="n">
-        <v>0.5196549892425537</v>
+        <v>0.5207071304321289</v>
       </c>
       <c r="G14" t="n">
         <v>0.06883228365161198</v>
       </c>
       <c r="H14" t="n">
-        <v>27.95713864865279</v>
+        <v>27.90064843487274</v>
       </c>
       <c r="I14" t="n">
         <v>6</v>
@@ -960,15 +930,9 @@
       <c r="J14" t="n">
         <v>12</v>
       </c>
-      <c r="K14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2</v>
-      </c>
-      <c r="M14" t="n">
-        <v>2</v>
-      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s"/>
+      <c r="M14" t="s"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="n">
@@ -980,20 +944,16 @@
       <c r="C15" t="n">
         <v>81</v>
       </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
+      <c r="D15" t="s"/>
+      <c r="E15" t="s"/>
       <c r="F15" t="n">
-        <v>0.534649133682251</v>
+        <v>0.5361039638519287</v>
       </c>
       <c r="G15" t="n">
         <v>0.06894180871164859</v>
       </c>
       <c r="H15" t="n">
-        <v>27.12991664772933</v>
+        <v>27.05629394784036</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1001,15 +961,9 @@
       <c r="J15" t="n">
         <v>13</v>
       </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="n">
-        <v>2</v>
-      </c>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s"/>
+      <c r="M15" t="s"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="n">
@@ -1021,20 +975,16 @@
       <c r="C16" t="n">
         <v>262</v>
       </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
+      <c r="D16" t="s"/>
+      <c r="E16" t="s"/>
       <c r="F16" t="n">
-        <v>0.5258190631866455</v>
+        <v>0.5294368267059326</v>
       </c>
       <c r="G16" t="n">
         <v>0.0733299001679897</v>
       </c>
       <c r="H16" t="n">
-        <v>25.93478064892054</v>
+        <v>25.75756233206083</v>
       </c>
       <c r="I16" t="n">
         <v>6</v>
@@ -1042,15 +992,9 @@
       <c r="J16" t="n">
         <v>14</v>
       </c>
-      <c r="K16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="n">
-        <v>2</v>
-      </c>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s"/>
+      <c r="M16" t="s"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="n">
@@ -1062,20 +1006,16 @@
       <c r="C17" t="n">
         <v>92</v>
       </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
+      <c r="D17" t="s"/>
+      <c r="E17" t="s"/>
       <c r="F17" t="n">
-        <v>0.5161871910095215</v>
+        <v>0.5187199115753174</v>
       </c>
       <c r="G17" t="n">
         <v>0.07576288451134645</v>
       </c>
       <c r="H17" t="n">
-        <v>25.57032661299547</v>
+        <v>25.44547601319842</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1083,15 +1023,9 @@
       <c r="J17" t="n">
         <v>15</v>
       </c>
-      <c r="K17" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="n">
-        <v>2</v>
-      </c>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s"/>
+      <c r="M17" t="s"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1" t="n">
@@ -1101,38 +1035,28 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>211</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="D18" t="s"/>
+      <c r="E18" t="s"/>
       <c r="F18" t="n">
-        <v>0.5246059894561768</v>
+        <v>0.5186169147491455</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07535550697057584</v>
+        <v>0.07658045954355507</v>
       </c>
       <c r="H18" t="n">
-        <v>25.29599456972986</v>
+        <v>25.17881892801836</v>
       </c>
       <c r="I18" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J18" t="n">
         <v>16</v>
       </c>
-      <c r="K18" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2</v>
-      </c>
-      <c r="M18" t="n">
-        <v>2</v>
-      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s"/>
+      <c r="M18" t="s"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="n">
@@ -1142,38 +1066,28 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>87</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="D19" t="s"/>
+      <c r="E19" t="s"/>
       <c r="F19" t="n">
-        <v>0.5176048278808594</v>
+        <v>0.5282390117645264</v>
       </c>
       <c r="G19" t="n">
-        <v>0.07658045954355507</v>
+        <v>0.07535550697057584</v>
       </c>
       <c r="H19" t="n">
-        <v>25.228051760912</v>
+        <v>25.12201856542693</v>
       </c>
       <c r="I19" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J19" t="n">
         <v>17</v>
       </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s"/>
+      <c r="M19" t="s"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="n">
@@ -1183,38 +1097,28 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>21</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="D20" t="s"/>
+      <c r="E20" t="s"/>
       <c r="F20" t="n">
-        <v>0.5368430614471436</v>
+        <v>0.5229620933532715</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0742478285967043</v>
+        <v>0.07680388989676881</v>
       </c>
       <c r="H20" t="n">
-        <v>25.08816507452934</v>
+        <v>24.89697442883326</v>
       </c>
       <c r="I20" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J20" t="n">
         <v>18</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s"/>
+      <c r="M20" t="s"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1" t="n">
@@ -1224,38 +1128,28 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>203</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>4</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D21" t="s"/>
+      <c r="E21" t="s"/>
       <c r="F21" t="n">
-        <v>0.5219728946685791</v>
+        <v>0.5418510437011719</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07680388989676881</v>
+        <v>0.0742478285967043</v>
       </c>
       <c r="H21" t="n">
-        <v>24.94415705959699</v>
+        <v>24.85629122849746</v>
       </c>
       <c r="I21" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="J21" t="n">
         <v>19</v>
       </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s"/>
+      <c r="M21" t="s"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="n">
@@ -1267,20 +1161,16 @@
       <c r="C22" t="n">
         <v>82</v>
       </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
+      <c r="D22" t="s"/>
+      <c r="E22" t="s"/>
       <c r="F22" t="n">
-        <v>0.5220460891723633</v>
+        <v>0.5245778560638428</v>
       </c>
       <c r="G22" t="n">
         <v>0.0799753545919832</v>
       </c>
       <c r="H22" t="n">
-        <v>23.95162475311716</v>
+        <v>23.83602717337543</v>
       </c>
       <c r="I22" t="n">
         <v>18</v>
@@ -1288,15 +1178,9 @@
       <c r="J22" t="n">
         <v>20</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s"/>
+      <c r="M22" t="s"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1" t="n">
@@ -1308,20 +1192,16 @@
       <c r="C23" t="n">
         <v>215</v>
       </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
+      <c r="D23" t="s"/>
+      <c r="E23" t="s"/>
       <c r="F23" t="n">
-        <v>0.5226759910583496</v>
+        <v>0.5239830017089844</v>
       </c>
       <c r="G23" t="n">
         <v>0.0809214801183176</v>
       </c>
       <c r="H23" t="n">
-        <v>23.6430570871139</v>
+        <v>23.58408241174154</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1329,15 +1209,9 @@
       <c r="J23" t="n">
         <v>21</v>
       </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s"/>
+      <c r="M23" t="s"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="n">
@@ -1349,20 +1223,16 @@
       <c r="C24" t="n">
         <v>70</v>
       </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
+      <c r="D24" t="s"/>
+      <c r="E24" t="s"/>
       <c r="F24" t="n">
-        <v>0.8765199184417725</v>
+        <v>0.8860900402069092</v>
       </c>
       <c r="G24" t="n">
         <v>0.06643107590588711</v>
       </c>
       <c r="H24" t="n">
-        <v>17.17382068727333</v>
+        <v>16.98833665326766</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1370,15 +1240,9 @@
       <c r="J24" t="n">
         <v>22</v>
       </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s"/>
+      <c r="M24" t="s"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="n">
@@ -1390,20 +1254,16 @@
       <c r="C25" t="n">
         <v>120</v>
       </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1</v>
-      </c>
+      <c r="D25" t="s"/>
+      <c r="E25" t="s"/>
       <c r="F25" t="n">
-        <v>0.8787319660186768</v>
+        <v>0.8798351287841797</v>
       </c>
       <c r="G25" t="n">
         <v>0.06852029390880053</v>
       </c>
       <c r="H25" t="n">
-        <v>16.60826851274706</v>
+        <v>16.58744458469129</v>
       </c>
       <c r="I25" t="n">
         <v>4</v>
@@ -1411,15 +1271,9 @@
       <c r="J25" t="n">
         <v>23</v>
       </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s"/>
+      <c r="M25" t="s"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="n">
@@ -1429,22 +1283,18 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>60</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D26" t="s"/>
+      <c r="E26" t="s"/>
       <c r="F26" t="n">
-        <v>0.8963310718536377</v>
+        <v>0.8786149024963379</v>
       </c>
       <c r="G26" t="n">
-        <v>0.06909196397370516</v>
+        <v>0.0710271783799214</v>
       </c>
       <c r="H26" t="n">
-        <v>16.14745230149444</v>
+        <v>16.02421902851844</v>
       </c>
       <c r="I26" t="n">
         <v>6</v>
@@ -1452,15 +1302,9 @@
       <c r="J26" t="n">
         <v>24</v>
       </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s"/>
+      <c r="M26" t="s"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1" t="n">
@@ -1470,22 +1314,18 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>71</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="n">
-        <v>2</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D27" t="s"/>
+      <c r="E27" t="s"/>
       <c r="F27" t="n">
-        <v>0.8746638298034668</v>
+        <v>0.9245188236236572</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0710271783799214</v>
+        <v>0.06909196397370516</v>
       </c>
       <c r="H27" t="n">
-        <v>16.09660438626485</v>
+        <v>15.65513092786491</v>
       </c>
       <c r="I27" t="n">
         <v>6</v>
@@ -1493,15 +1333,9 @@
       <c r="J27" t="n">
         <v>25</v>
       </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s"/>
+      <c r="M27" t="s"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1" t="n">
@@ -1513,20 +1347,16 @@
       <c r="C28" t="n">
         <v>76</v>
       </c>
-      <c r="D28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1</v>
-      </c>
+      <c r="D28" t="s"/>
+      <c r="E28" t="s"/>
       <c r="F28" t="n">
-        <v>0.866753101348877</v>
+        <v>0.8731839656829834</v>
       </c>
       <c r="G28" t="n">
         <v>0.07450159638535145</v>
       </c>
       <c r="H28" t="n">
-        <v>15.48599151612664</v>
+        <v>15.37193959301163</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1534,15 +1364,9 @@
       <c r="J28" t="n">
         <v>26</v>
       </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s"/>
+      <c r="M28" t="s"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="n">
@@ -1554,20 +1378,16 @@
       <c r="C29" t="n">
         <v>65</v>
       </c>
-      <c r="D29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1</v>
-      </c>
+      <c r="D29" t="s"/>
+      <c r="E29" t="s"/>
       <c r="F29" t="n">
-        <v>0.8693859577178955</v>
+        <v>0.8738498687744141</v>
       </c>
       <c r="G29" t="n">
         <v>0.07536686230446765</v>
       </c>
       <c r="H29" t="n">
-        <v>15.26184167191765</v>
+        <v>15.18387919092802</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -1575,15 +1395,9 @@
       <c r="J29" t="n">
         <v>27</v>
       </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s"/>
+      <c r="M29" t="s"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="n">
@@ -1595,20 +1409,16 @@
       <c r="C30" t="n">
         <v>189</v>
       </c>
-      <c r="D30" t="n">
-        <v>2</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1</v>
-      </c>
+      <c r="D30" t="s"/>
+      <c r="E30" t="s"/>
       <c r="F30" t="n">
-        <v>0.8926899433135986</v>
+        <v>0.8966829776763916</v>
       </c>
       <c r="G30" t="n">
         <v>0.07404239772152736</v>
       </c>
       <c r="H30" t="n">
-        <v>15.12930170905057</v>
+        <v>15.0619291558592</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
@@ -1616,15 +1426,9 @@
       <c r="J30" t="n">
         <v>28</v>
       </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s"/>
+      <c r="M30" t="s"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="n">
@@ -1636,20 +1440,16 @@
       <c r="C31" t="n">
         <v>199</v>
       </c>
-      <c r="D31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" t="n">
-        <v>2</v>
-      </c>
+      <c r="D31" t="s"/>
+      <c r="E31" t="s"/>
       <c r="F31" t="n">
-        <v>0.8862659931182861</v>
+        <v>0.9043800830841064</v>
       </c>
       <c r="G31" t="n">
         <v>0.0791074718681255</v>
       </c>
       <c r="H31" t="n">
-        <v>14.26324720214178</v>
+        <v>13.97756450317825</v>
       </c>
       <c r="I31" t="n">
         <v>11</v>
@@ -1657,15 +1457,9 @@
       <c r="J31" t="n">
         <v>29</v>
       </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s"/>
+      <c r="M31" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
